--- a/A02SNQQ_ ATT CORRECTIONS/A02SNQQ_PON TEST SHEET.xlsx
+++ b/A02SNQQ_ ATT CORRECTIONS/A02SNQQ_PON TEST SHEET.xlsx
@@ -10930,7 +10930,7 @@
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;"Segoe UI,Regular"&amp;10Page &amp;P of &amp;N 
-&amp;"-,Regular"6/25/2024 1:01:46 PM CT </oddFooter>
+&amp;"-,Regular"6/26/2024 8:15:17 AM CT </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>
